--- a/Results/20231224 Revision_Simulated_Tornado_30M.xlsx
+++ b/Results/20231224 Revision_Simulated_Tornado_30M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F041FA-9EC5-4180-8FFB-E343AE5413C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA5AC8-8413-4676-A9CB-BDF340A47FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30M-base-worst" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3568,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A1BAFE-8EF2-4154-8DC1-44AF14DC1894}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3629,6 +3629,36 @@
       <c r="C2">
         <v>87</v>
       </c>
+      <c r="D2">
+        <v>12093</v>
+      </c>
+      <c r="E2">
+        <v>12093</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>52.08</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>51.87</v>
+      </c>
+      <c r="J2">
+        <v>486</v>
+      </c>
+      <c r="K2">
+        <v>45.18</v>
+      </c>
+      <c r="L2">
+        <v>352</v>
+      </c>
+      <c r="M2">
+        <v>16.989999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -3640,6 +3670,36 @@
       <c r="C3">
         <v>43</v>
       </c>
+      <c r="D3">
+        <v>8021</v>
+      </c>
+      <c r="E3">
+        <v>8021</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>6.17</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>6.06</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>0.83</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -3651,6 +3711,36 @@
       <c r="C4">
         <v>32</v>
       </c>
+      <c r="D4">
+        <v>8941</v>
+      </c>
+      <c r="E4">
+        <v>8941</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>7.72</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>7.53</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>0.67</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -3662,6 +3752,36 @@
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>4272</v>
+      </c>
+      <c r="E5">
+        <v>4276</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>54.07</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>53.92</v>
+      </c>
+      <c r="J5">
+        <v>1010</v>
+      </c>
+      <c r="K5">
+        <v>27.17</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -3673,6 +3793,36 @@
       <c r="C6">
         <v>63</v>
       </c>
+      <c r="D6">
+        <v>10199</v>
+      </c>
+      <c r="E6">
+        <v>10199</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>11.44</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>11.26</v>
+      </c>
+      <c r="J6">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>2.89</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -3684,6 +3834,36 @@
       <c r="C7">
         <v>3</v>
       </c>
+      <c r="D7">
+        <v>7943</v>
+      </c>
+      <c r="E7">
+        <v>7943</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>23.19</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>22.98</v>
+      </c>
+      <c r="J7">
+        <v>159</v>
+      </c>
+      <c r="K7">
+        <v>10.55</v>
+      </c>
+      <c r="L7">
+        <v>17</v>
+      </c>
+      <c r="M7">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -3695,6 +3875,36 @@
       <c r="C8">
         <v>18</v>
       </c>
+      <c r="D8">
+        <v>12007</v>
+      </c>
+      <c r="E8">
+        <v>12007</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>10.65</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>10.46</v>
+      </c>
+      <c r="J8">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>2.06</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -3706,6 +3916,36 @@
       <c r="C9">
         <v>61</v>
       </c>
+      <c r="D9">
+        <v>12240</v>
+      </c>
+      <c r="E9">
+        <v>12240</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>13.8</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>13.57</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>3.77</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -3717,6 +3957,36 @@
       <c r="C10">
         <v>12</v>
       </c>
+      <c r="D10">
+        <v>11783</v>
+      </c>
+      <c r="E10">
+        <v>11783</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>12.5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>12.26</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>2.82</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -3728,6 +3998,36 @@
       <c r="C11">
         <v>54</v>
       </c>
+      <c r="D11">
+        <v>10555</v>
+      </c>
+      <c r="E11">
+        <v>10555</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>26.36</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>26.19</v>
+      </c>
+      <c r="J11">
+        <v>232</v>
+      </c>
+      <c r="K11">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="L11">
+        <v>48</v>
+      </c>
+      <c r="M11">
+        <v>4.1900000000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -3739,6 +4039,36 @@
       <c r="C12">
         <v>6</v>
       </c>
+      <c r="D12">
+        <v>11783</v>
+      </c>
+      <c r="E12">
+        <v>11783</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>13.33</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>13.14</v>
+      </c>
+      <c r="J12">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>2.13</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -3750,6 +4080,36 @@
       <c r="C13">
         <v>26</v>
       </c>
+      <c r="D13">
+        <v>9935</v>
+      </c>
+      <c r="E13">
+        <v>9939</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>85.61</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>85.43</v>
+      </c>
+      <c r="J13">
+        <v>300</v>
+      </c>
+      <c r="K13">
+        <v>25.51</v>
+      </c>
+      <c r="L13">
+        <v>51</v>
+      </c>
+      <c r="M13">
+        <v>5.03</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -3761,6 +4121,36 @@
       <c r="C14">
         <v>12</v>
       </c>
+      <c r="D14">
+        <v>11783</v>
+      </c>
+      <c r="E14">
+        <v>11783</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>7.6</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>7.45</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>0.77</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -3772,6 +4162,36 @@
       <c r="C15">
         <v>69</v>
       </c>
+      <c r="D15">
+        <v>7805</v>
+      </c>
+      <c r="E15">
+        <v>7813</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>34.43</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>34.22</v>
+      </c>
+      <c r="J15">
+        <v>201</v>
+      </c>
+      <c r="K15">
+        <v>10.87</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -3783,8 +4203,38 @@
       <c r="C16">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>6908</v>
+      </c>
+      <c r="E16">
+        <v>6908</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>10.07</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="J16">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <v>2.14</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3794,8 +4244,38 @@
       <c r="C17">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>5239</v>
+      </c>
+      <c r="E17">
+        <v>5244</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>48.51</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>48.34</v>
+      </c>
+      <c r="J17">
+        <v>533</v>
+      </c>
+      <c r="K17">
+        <v>15.22</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3805,8 +4285,38 @@
       <c r="C18">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>5765</v>
+      </c>
+      <c r="E18">
+        <v>5770</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>220.3</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>220.08</v>
+      </c>
+      <c r="J18">
+        <v>2834</v>
+      </c>
+      <c r="K18">
+        <v>91.9</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3816,8 +4326,38 @@
       <c r="C19">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>11634</v>
+      </c>
+      <c r="E19">
+        <v>11634</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>10.84</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>10.7</v>
+      </c>
+      <c r="J19">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>3.4</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3827,8 +4367,38 @@
       <c r="C20">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>10199</v>
+      </c>
+      <c r="E20">
+        <v>10199</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>12.23</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>34</v>
+      </c>
+      <c r="K20">
+        <v>3.54</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3838,8 +4408,38 @@
       <c r="C21">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>12991</v>
+      </c>
+      <c r="E21">
+        <v>12991</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>9.5</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>9.34</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>0.63</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3849,8 +4449,38 @@
       <c r="C22">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>12143</v>
+      </c>
+      <c r="E22">
+        <v>12143</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>35.61</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>35.43</v>
+      </c>
+      <c r="J22">
+        <v>160</v>
+      </c>
+      <c r="K22">
+        <v>27.32</v>
+      </c>
+      <c r="L22">
+        <v>151</v>
+      </c>
+      <c r="M22">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3860,8 +4490,38 @@
       <c r="C23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>9817</v>
+      </c>
+      <c r="E23">
+        <v>9817</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>10.48</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>10.31</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>1.18</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3871,8 +4531,38 @@
       <c r="C24">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>9083</v>
+      </c>
+      <c r="E24">
+        <v>9083</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>69.34</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="J24">
+        <v>209</v>
+      </c>
+      <c r="K24">
+        <v>11.63</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3882,8 +4572,38 @@
       <c r="C25">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>12011</v>
+      </c>
+      <c r="E25">
+        <v>12011</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>11.62</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>11.45</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3893,8 +4613,38 @@
       <c r="C26">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>10672</v>
+      </c>
+      <c r="E26">
+        <v>10672</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>12.36</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>12.18</v>
+      </c>
+      <c r="J26">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>3.95</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3904,8 +4654,38 @@
       <c r="C27">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>1881</v>
+      </c>
+      <c r="E27">
+        <v>1881</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>18.11</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>17.96</v>
+      </c>
+      <c r="J27">
+        <v>612</v>
+      </c>
+      <c r="K27">
+        <v>8.27</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3915,8 +4695,38 @@
       <c r="C28">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>9939</v>
+      </c>
+      <c r="E28">
+        <v>9939</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>22.12</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>21.9</v>
+      </c>
+      <c r="J28">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>7.03</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3926,8 +4736,38 @@
       <c r="C29">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>11634</v>
+      </c>
+      <c r="E29">
+        <v>11634</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>12.72</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>12.55</v>
+      </c>
+      <c r="J29">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>3.6</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3937,8 +4777,38 @@
       <c r="C30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>12262</v>
+      </c>
+      <c r="E30">
+        <v>12262</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>12.64</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>12.5</v>
+      </c>
+      <c r="J30">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <v>4.05</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3948,8 +4818,38 @@
       <c r="C31">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>4707</v>
+      </c>
+      <c r="E31">
+        <v>4713</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>37.21</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>37</v>
+      </c>
+      <c r="J31">
+        <v>431</v>
+      </c>
+      <c r="K31">
+        <v>16.39</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3959,8 +4859,38 @@
       <c r="C32">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>12584</v>
+      </c>
+      <c r="E32">
+        <v>12584</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>11.11</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>10.92</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>2.6</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3970,8 +4900,38 @@
       <c r="C33">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>6908</v>
+      </c>
+      <c r="E33">
+        <v>6908</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>7.39</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>7.26</v>
+      </c>
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <v>1.61</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3981,8 +4941,38 @@
       <c r="C34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>8970</v>
+      </c>
+      <c r="E34">
+        <v>8970</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>156.6</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>156.38999999999999</v>
+      </c>
+      <c r="J34">
+        <v>279</v>
+      </c>
+      <c r="K34">
+        <v>22.25</v>
+      </c>
+      <c r="L34">
+        <v>64</v>
+      </c>
+      <c r="M34">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3992,8 +4982,38 @@
       <c r="C35">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>9771</v>
+      </c>
+      <c r="E35">
+        <v>9771</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>107.12</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>106.91</v>
+      </c>
+      <c r="J35">
+        <v>134</v>
+      </c>
+      <c r="K35">
+        <v>12.84</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4003,8 +5023,38 @@
       <c r="C36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>10334</v>
+      </c>
+      <c r="E36">
+        <v>10334</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>10.94</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>10.74</v>
+      </c>
+      <c r="J36">
+        <v>41</v>
+      </c>
+      <c r="K36">
+        <v>2.13</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4014,8 +5064,38 @@
       <c r="C37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>11702</v>
+      </c>
+      <c r="E37">
+        <v>11706</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>10.57</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>10.4</v>
+      </c>
+      <c r="J37">
+        <v>28</v>
+      </c>
+      <c r="K37">
+        <v>2.19</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4025,8 +5105,38 @@
       <c r="C38">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>11915</v>
+      </c>
+      <c r="E38">
+        <v>11915</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>16.13</v>
+      </c>
+      <c r="J38">
+        <v>81</v>
+      </c>
+      <c r="K38">
+        <v>7.61</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4036,8 +5146,38 @@
       <c r="C39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>12164</v>
+      </c>
+      <c r="E39">
+        <v>12164</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>12.25</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>12.1</v>
+      </c>
+      <c r="J39">
+        <v>32</v>
+      </c>
+      <c r="K39">
+        <v>2.87</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4047,8 +5187,38 @@
       <c r="C40">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>9491</v>
+      </c>
+      <c r="E40">
+        <v>9491</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>7.19</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>7.04</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>0.7</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4058,8 +5228,38 @@
       <c r="C41">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>10926</v>
+      </c>
+      <c r="E41">
+        <v>10926</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>12.01</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>11.83</v>
+      </c>
+      <c r="J41">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>4.55</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4069,8 +5269,38 @@
       <c r="C42">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>7344</v>
+      </c>
+      <c r="E42">
+        <v>7352</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>44.03</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>43.81</v>
+      </c>
+      <c r="J42">
+        <v>283</v>
+      </c>
+      <c r="K42">
+        <v>15.91</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4080,8 +5310,38 @@
       <c r="C43">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>11083</v>
+      </c>
+      <c r="E43">
+        <v>11083</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>10.5</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>10.36</v>
+      </c>
+      <c r="J43">
+        <v>47</v>
+      </c>
+      <c r="K43">
+        <v>2.9</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4091,8 +5351,38 @@
       <c r="C44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>11192</v>
+      </c>
+      <c r="E44">
+        <v>11192</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>7.7</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>7.56</v>
+      </c>
+      <c r="J44">
+        <v>27</v>
+      </c>
+      <c r="K44">
+        <v>1.64</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4102,8 +5392,38 @@
       <c r="C45">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>12946</v>
+      </c>
+      <c r="E45">
+        <v>12946</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>10.87</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>10.7</v>
+      </c>
+      <c r="J45">
+        <v>22</v>
+      </c>
+      <c r="K45">
+        <v>2.93</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4113,8 +5433,38 @@
       <c r="C46">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <v>8683</v>
+      </c>
+      <c r="E46">
+        <v>8683</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>57.46</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>57.3</v>
+      </c>
+      <c r="J46">
+        <v>722</v>
+      </c>
+      <c r="K46">
+        <v>45.18</v>
+      </c>
+      <c r="L46">
+        <v>130</v>
+      </c>
+      <c r="M46">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4124,8 +5474,38 @@
       <c r="C47">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>6633</v>
+      </c>
+      <c r="E47">
+        <v>6641</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>9.51</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="J47">
+        <v>22</v>
+      </c>
+      <c r="K47">
+        <v>1.4</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4135,8 +5515,38 @@
       <c r="C48">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>8739</v>
+      </c>
+      <c r="E48">
+        <v>8762</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>38.49</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>38.31</v>
+      </c>
+      <c r="J48">
+        <v>136</v>
+      </c>
+      <c r="K48">
+        <v>10.19</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4146,8 +5556,38 @@
       <c r="C49">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>9347</v>
+      </c>
+      <c r="E49">
+        <v>9347</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>52.64</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>52.44</v>
+      </c>
+      <c r="J49">
+        <v>115</v>
+      </c>
+      <c r="K49">
+        <v>8.08</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4157,8 +5597,38 @@
       <c r="C50">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>11683</v>
+      </c>
+      <c r="E50">
+        <v>11683</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>15.06</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>14.89</v>
+      </c>
+      <c r="J50">
+        <v>64</v>
+      </c>
+      <c r="K50">
+        <v>6.68</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4168,41 +5638,71 @@
       <c r="C51">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>9939</v>
+      </c>
+      <c r="E51">
+        <v>9939</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>25.04</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>24.82</v>
+      </c>
+      <c r="J51">
+        <v>60</v>
+      </c>
+      <c r="K51">
+        <v>8.98</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>13</v>
       </c>
-      <c r="E54" t="e">
+      <c r="E54">
         <f>AVERAGE(E2:E51)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9773.48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
         <v>14</v>
       </c>
       <c r="E55">
         <f>MAX(E2:E51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>12991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56">
         <f>MIN(E2:E51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>16</v>
       </c>
-      <c r="E57" t="e">
+      <c r="E57">
         <f>_xlfn.STDEV.P(E2:E51)</f>
-        <v>#DIV/0!</v>
+        <v>2477.3143542150642</v>
       </c>
     </row>
   </sheetData>

--- a/Results/20231224 Revision_Simulated_Tornado_30M.xlsx
+++ b/Results/20231224 Revision_Simulated_Tornado_30M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA5AC8-8413-4676-A9CB-BDF340A47FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96013F7F-398B-406E-A172-E1D876758025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3568,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A1BAFE-8EF2-4154-8DC1-44AF14DC1894}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
